--- a/biology/Médecine/Antécédents_familiaux/Antécédents_familiaux.xlsx
+++ b/biology/Médecine/Antécédents_familiaux/Antécédents_familiaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ant%C3%A9c%C3%A9dents_familiaux</t>
+          <t>Antécédents_familiaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, les antécédents familiaux consistent en des informations au sujet de troubles dont ont souffert des parents directs du patient.
 L'exploration des antécédents familiaux fait partie de tout examen clinique et complète l'anamnèse.
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ant%C3%A9c%C3%A9dents_familiaux</t>
+          <t>Antécédents_familiaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Conséquences</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tous les antécédents familiaux n'impliquent pas de cause génétique. Si différents membres d'une même famille ont été exposés à la même toxine, ils peuvent développer des symptômes similaires sans cause génétique.
 Si un patient à un lien de famille fort avec un trouble particulier (ou un groupe de troubles), cela va généralement amener à faciliter le diagnostic.
